--- a/urlextract.xlsx
+++ b/urlextract.xlsx
@@ -7,7 +7,7 @@
     <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="apple" sheetId="1" r:id="rId1"/>
     <s:sheet name="Sheet" sheetId="2" r:id="rId2"/>
   </s:sheets>
   <s:definedNames/>
@@ -16,7 +16,1163 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="385">
+  <si>
+    <t>247wallst.com/technology-3/2014/06/20/analyst-highlights-seven-apple-iphone-6-suppliers-to-buy/</t>
+  </si>
+  <si>
+    <t>9to5mac.com/2014/02/06/exclusive-apple-just-procured-enough-sapphire-crystal-furnaces-to-make-100-200m-5-inch-iphone-displays-in-arizona/</t>
+  </si>
+  <si>
+    <t>9to5mac.com/2014/09/17/apple-tv-september-2014-update/</t>
+  </si>
+  <si>
+    <t>9to5mac.com/2014/12/19/watch-the-full-bbc-documentary-on-iphone-factory-working-conditions-while-you-can/</t>
+  </si>
+  <si>
+    <t>9to5mac.com/2015/01/28/apple-ties-largest-smartphone-maker/</t>
+  </si>
+  <si>
+    <t>URLs with frequency = 1</t>
+  </si>
+  <si>
+    <t>URLs with frequency = 2</t>
+  </si>
+  <si>
+    <t>URLs with frequency = 3</t>
+  </si>
+  <si>
+    <t>URLs with frequency = 4</t>
+  </si>
+  <si>
+    <t>URLs with frequency = 5</t>
+  </si>
+  <si>
+    <t>URLs with frequency = 8</t>
+  </si>
+  <si>
+    <t>abcnews.go.com/Technology</t>
+  </si>
+  <si>
+    <t>appleinsider.com/articles/14/01/06/critics-take-issue-with-lack-of-diversity-on-apple-board-of-directors</t>
+  </si>
+  <si>
+    <t>appleinsider.com/articles/14/02/13/apple-releases-2014-supplier-responsibility-report-pushes-against-conflict-minerals</t>
+  </si>
+  <si>
+    <t>appleinsider.com/articles/14/02/20/apples-iphone-led-2013-us-consumer-smartphone-sales-with-45-share---npd</t>
+  </si>
+  <si>
+    <t>appleinsider.com/articles/14/05/09/nokia-lumia-photography-chief-ari-partinen-joins-apple</t>
+  </si>
+  <si>
+    <t>appleinsider.com/articles/14/08/14/rumor-apple-supplier-pegatron-nets-50-of-47-inch-iphone-6-production</t>
+  </si>
+  <si>
+    <t>appleinsider.com/articles/14/09/04/apple-supplier-catcher-technology-accused-of-labor-violations-in-china-plant</t>
+  </si>
+  <si>
+    <t>appleinsider.com/articles/14/10/08/surging-mac-sales-put-apple-among-top-five-global-pc-vendors-for-first-time-idc-says</t>
+  </si>
+  <si>
+    <t>appleinsider.com/articles/14/11/15/apple-inc-a8x-ipad-chip-causing-big-problems-for-intel-qualcomm-samsung-and-nvidia</t>
+  </si>
+  <si>
+    <t>appleinsider.com/articles/15/03/11/apple-inc-has-acquired-26-firms-in-15-months-while-pursuing-increased-diversity-a-confident-tim-cook-tells-shareholders</t>
+  </si>
+  <si>
+    <t>appletv.macrumors.com/</t>
+  </si>
+  <si>
+    <t>apps.fas.usda.gov/psdonline/</t>
+  </si>
+  <si>
+    <t>austintexas.gov/sites/default/files/files/Redevelopment/CH_380_Agreements/3.9.12.BIF.PDF</t>
+  </si>
+  <si>
+    <t>beyondplm.com/2013/09/17/bom-apple-of-discord-between-plm-and-erp/</t>
+  </si>
+  <si>
+    <t>bgr.com/2014/12/19/apple-china-factory-conditions-response/</t>
+  </si>
+  <si>
+    <t>bits.blogs.nytimes.com/2014/08/12/apples-diversity-mirrors-other-tech-companies/</t>
+  </si>
+  <si>
+    <t>blog.evantix.com/how-a-vendor-assessment-template-can-simpify-risk-management</t>
+  </si>
+  <si>
+    <t>blog.flite.com/home/2014/7/8/becoming-cross-functional</t>
+  </si>
+  <si>
+    <t>blog.greenamerica.org/2014/05/08/the-problem-with-benzene-and-apples-off-shore-solution/</t>
+  </si>
+  <si>
+    <t>blog.laptopmag.com/laptop-brand-ratings</t>
+  </si>
+  <si>
+    <t>blog.parallels.com/category/macs-in-business/</t>
+  </si>
+  <si>
+    <t>blog.streamingmedia.com/2014/02/heres-comcast-netflix-deal-structured-numbers.html</t>
+  </si>
+  <si>
+    <t>blogs.wsj.com/digits/2014/10/14/second-executive-of-apple-supplier-sold-shares-after-trouble-surfaced/</t>
+  </si>
+  <si>
+    <t>blogs.wsj.com/digits/2014/12/19/bbc-says-apple-suppliers-continue-to-violate-labor-standards/</t>
+  </si>
+  <si>
+    <t>business.financialpost.com/2014/12/12/cmhc-to-axe-215-jobs-in-restructuring-but-add-risk-management-and-it-staff/</t>
+  </si>
+  <si>
+    <t>careeredge.bentley.edu/blog/2014/09/16/on-the-road-with-success-in-the-city-marketing-track-part-1-macys/</t>
+  </si>
+  <si>
+    <t>cen.acs.org/articles/91/i14/Engineered-Apples-Near-Approval.html</t>
+  </si>
+  <si>
+    <t>cloud.google.com/appengine/sla</t>
+  </si>
+  <si>
+    <t>cporising.com/2014/12/19/cpo-news-december-19-2014/</t>
+  </si>
+  <si>
+    <t>dailycrowdsource.com/training/crowdsourcing/what-is-crowdsourcing</t>
+  </si>
+  <si>
+    <t>daringfireball.net/</t>
+  </si>
+  <si>
+    <t>delmontapplenarts.com/become-a-vendor/food-vendors/</t>
+  </si>
+  <si>
+    <t>delmontapplenarts.com/festival-information/2013-vendor-list/</t>
+  </si>
+  <si>
+    <t>developer.apple.com/app-store/review/guidelines/</t>
+  </si>
+  <si>
+    <t>discussions.apple.com/thread/5520032</t>
+  </si>
+  <si>
+    <t>docs.dpaq.de/8545-apple_sr_report_2015.pdf</t>
+  </si>
+  <si>
+    <t>events.sap.com/sapphirenow/en/session/4066</t>
+  </si>
+  <si>
+    <t>exchange.ariba.com/community/events/aribalive</t>
+  </si>
+  <si>
+    <t>exchange.ariba.com/community/events/aribalive/blog</t>
+  </si>
+  <si>
+    <t>files.shareholder.com/downloads/AAPL/0x0x443005/adc3ad8b-5a18-4add-8b5b-2221773c5b3b/audit_charter.pdf</t>
+  </si>
+  <si>
+    <t>files.shareholder.com/downloads/AAPL/0x0x443008/5f38b1e6-2f9c-4518-b691-13a29ac90501/business_conduct_policy.pdf</t>
+  </si>
+  <si>
+    <t>financesonline.com/how-iphone-is-made/</t>
+  </si>
+  <si>
+    <t>fortune.com/2014/02/24/inside-the-netflix-comcast-deal/</t>
+  </si>
+  <si>
+    <t>fortune.com/2014/08/29/how-tech-companies-compare-in-employee-diversity/</t>
+  </si>
+  <si>
+    <t>fortune.com/2014/09/01/china-gives-microsoft-20-days-to-explain-bundling-strategy/</t>
+  </si>
+  <si>
+    <t>fortune.com/2014/11/08/apple-told-its-sapphire-supplier-put-on-your-big-boy-pants/</t>
+  </si>
+  <si>
+    <t>fortune.com/tag/apple-2-0/</t>
+  </si>
+  <si>
+    <t>gadgets.ndtv.com/mobiles/news/when-apple-sneezes-suppliers-and-investors-catch-a-cold-357170</t>
+  </si>
+  <si>
+    <t>hbr.org/2013/03/why-apple-is-going-have-to-bec</t>
+  </si>
+  <si>
+    <t>hbr.org/2013/04/using-the-crowd-as-an-innovation-partner/</t>
+  </si>
+  <si>
+    <t>hitconsultant.net/2014/10/28/5-hipaa-hurdles-health-app-developers/</t>
+  </si>
+  <si>
+    <t>ihealthtran.com/wordpress/</t>
+  </si>
+  <si>
+    <t>in.linkedin.com/pub/nandita-mehendale/51/745/815</t>
+  </si>
+  <si>
+    <t>investor.apple.com/</t>
+  </si>
+  <si>
+    <t>investor.apple.com/financials.cfm</t>
+  </si>
+  <si>
+    <t>investor.apple.com/secfiling.cfm%3Ffilingid%3D1193125-13-416534%26cik%3D</t>
+  </si>
+  <si>
+    <t>investor.gtat.com/releasedetail.cfm%3FReleaseID%3D804195</t>
+  </si>
+  <si>
+    <t>iphone.macrumors.com/</t>
+  </si>
+  <si>
+    <t>istart.com.au/</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/gb/app/offshore-technology-focus/id834817861%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/ariba-live-dc/id630055282%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/ariba-saleskit/id594045059%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/billguard-personal-finance/id602710567%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/contract-manager/id782976901%3Fmt%3D12</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/fox-news/id367623543%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/quicken-2013-money-management/id559831813%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/quicken-2014-2015-money-management/id701067522%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/risk-insurance-magazine/id499919690%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/risk-magazine/id554124230%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/sage-erp-mobile-sales/id627466411%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/science-channel/id580206899%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/tennis-channel-everywhere/id651092377%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/the-weather-channel-max/id316415412%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/travel-channel-cities/id503889626%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/app/weather-channel-weather.com/id295646461%3Fmt%3D8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/itunes-u/principles-of-management/id383152521%3Fmt%3D10</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/itunes-u/what-great-bosses-know/id380130790%3Fmt%3D10</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/podcast/5-minutes-project-management/id324698370%3Fmt%3D2</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/podcast/arrested-devops/id773888088%3Fmt%3D2</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/podcast/road-to-ted-public-speaking/id736071499%3Fmt%3D2</t>
+  </si>
+  <si>
+    <t>itunes.apple.com/us/podcast/the-hbr-channel/id280272386%3Fmt%3D2</t>
+  </si>
+  <si>
+    <t>jobs.apple.com/us/search%3Fjob%3D35662982%26openJobId%3D35662982</t>
+  </si>
+  <si>
+    <t>joewilcox.com/2014/11/04/im-mad-as-hell-about-reprehensible-news-sourcing/</t>
+  </si>
+  <si>
+    <t>kjzz.org/content/54494/why-apples-relationship-sapphire-glass-supplier-mesa-soured</t>
+  </si>
+  <si>
+    <t>listverse.com/2013/05/23/9-signs-apple-is-being-run-by-supervillains/</t>
+  </si>
+  <si>
+    <t>logisticsviewpoints.com/2012/07/02/the-apple-supply-chain-the-best-in-the-world/</t>
+  </si>
+  <si>
+    <t>marketingland.com/12-days-procurement-109889</t>
+  </si>
+  <si>
+    <t>marketingland.com/buyers-guides/digital-advertising-agencies-2014-a-buyers-guide</t>
+  </si>
+  <si>
+    <t>mdm.psu.edu/wp-content/uploads/sites/14502/2014/11/PSU-AppleDeployProg-SLA-v1_4.pdf</t>
+  </si>
+  <si>
+    <t>media.ibisworld.com/</t>
+  </si>
+  <si>
+    <t>money.cnn.com/2012/03/29/technology/apple-foxconn-report/</t>
+  </si>
+  <si>
+    <t>money.cnn.com/2014/06/03/technology/apple-craig-federighi/</t>
+  </si>
+  <si>
+    <t>news.investors.com/technology/121114-730087-google-could-lose-big-if-it-loses-apple-safari.htm</t>
+  </si>
+  <si>
+    <t>oamp.od.nih.gov/sites/default/files/DSAPS/newsletterjanfeb_2014_508.pdf</t>
+  </si>
+  <si>
+    <t>opendiversitydata.org/</t>
+  </si>
+  <si>
+    <t>opensignal.com/reports/fragmentation-2013/</t>
+  </si>
+  <si>
+    <t>pando.com/2014/03/22/revealed-apple-and-googles-wage-fixing-cartel-involved-dozens-more-companies-over-one-million-employees/</t>
+  </si>
+  <si>
+    <t>pdf.ifoman.com.s3.amazonaws.com/apple_australia_employee_agreement_2014.pdf</t>
+  </si>
+  <si>
+    <t>people.duke.edu/~rps23/responsiblesourcing.pdf</t>
+  </si>
+  <si>
+    <t>products.office.com/en-us/sharepoint/collaboration</t>
+  </si>
+  <si>
+    <t>qz.com/351256/its-official-china-is-blacklisting-apple-cisco-and-other-us-tech-companies/</t>
+  </si>
+  <si>
+    <t>radioshackcorporation.com/pdfs/RadioShack2013ConflictMineralsReport.pdf</t>
+  </si>
+  <si>
+    <t>readwrite.com/2014/10/09/apple-top-5-global-pc-vendor</t>
+  </si>
+  <si>
+    <t>recode.net/2014/08/12/apples-diversity-report-70-percent-male-55-percent-white-in-u-s/</t>
+  </si>
+  <si>
+    <t>scholarworks.waldenu.edu/cgi/viewcontent.cgi%3Farticle%3D1066%26context%3Ddissertations</t>
+  </si>
+  <si>
+    <t>scm.ncsu.edu/blog/2014/11/20/apples-sapphire-supplier-a-textbook-example-of-supplier-relationships-gone-bad/</t>
+  </si>
+  <si>
+    <t>seekingalpha.com/article/2576865-apples-aapl-ceo-tim-cook-on-q4-2014-results-earnings-call-transcript</t>
+  </si>
+  <si>
+    <t>sourceintelligence.com/blog/apple-takes-initiative-verifying-smelters-approaching-conflict-minerals-reporting-deadline</t>
+  </si>
+  <si>
+    <t>spendmatters.com/2013/06/04/apples-procurement-strategy/</t>
+  </si>
+  <si>
+    <t>spendmatters.com/2014/09/15/apples-expecting-record-crop-in-2014/</t>
+  </si>
+  <si>
+    <t>spendmatters.com/2014/10/29/could-proper-procurement-have-saved-apple-and-gt-advanced-a-cautionary-tale-of-the-wrong-type-of-source-to-settle/</t>
+  </si>
+  <si>
+    <t>ssl.apple.com/sg/supplier-responsibility/accountability/</t>
+  </si>
+  <si>
+    <t>stratechery.com/2013/why-microsofts-reorganization-is-a-bad-idea/</t>
+  </si>
+  <si>
+    <t>strategicsourcing.com/tag/apple/</t>
+  </si>
+  <si>
+    <t>strategicsourcing.com/tag/conflict-minerals/</t>
+  </si>
+  <si>
+    <t>strazzulla.me/files/strazzulla_resume_2014.pdf</t>
+  </si>
+  <si>
+    <t>superfreshgrowers.com/blog/2014/8/everything-you-need-know-about-gala-apples</t>
+  </si>
+  <si>
+    <t>svtc.org/take-action/</t>
+  </si>
+  <si>
+    <t>techcrunch.com/2013/01/25/apples-2013-supplier-responsibility-report-includes-72-bump-in-audits-for-2012-97-increase-in-training/</t>
+  </si>
+  <si>
+    <t>techcrunch.com/2014/02/25/apple-sapphire-supplier-gt-advanced-talks-new-customers-expanding-to-other-part-segments/</t>
+  </si>
+  <si>
+    <t>techcrunch.com/2014/08/12/apples-diversity-report-doesnt-satisfy-ceo-tim-cook-yet-though-inclusion-is-a-top-priority/</t>
+  </si>
+  <si>
+    <t>techcrunch.com/2015/01/28/smartphone-report-q4-2014/</t>
+  </si>
+  <si>
+    <t>techland.time.com/2012/01/13/apple-reveals-list-of-suppliers-for-the-first-time/</t>
+  </si>
+  <si>
+    <t>technology.ihs.com/</t>
+  </si>
+  <si>
+    <t>technology.msb.edu/useful_info/sla.pdf</t>
+  </si>
+  <si>
+    <t>telecom.economictimes.indiatimes.com/news/industry/vodafone-zoozoos-titan-among-oms-best-campaigns-piyush-pandey/42161987</t>
+  </si>
+  <si>
+    <t>thinkbusiness.nus.edu/articles/item/245-five-lessons-from-apple-for-china-buyers</t>
+  </si>
+  <si>
+    <t>time.com/3104025/apple-diversity-report/</t>
+  </si>
+  <si>
+    <t>twit.tv/</t>
+  </si>
+  <si>
+    <t>ww2.cfo.com/risk-management/2013/06/how-to-prevent-a-shareholder-blowup/</t>
+  </si>
+  <si>
+    <t>www.able-systems.com/news-16-09-13.asp</t>
+  </si>
+  <si>
+    <t>www.aboutmcdonalds.com/content/dam/AboutMcDonalds/2.0/pdfs/2012_2013_csr_report.pdf</t>
+  </si>
+  <si>
+    <t>www.academia.edu/4560034/Apple_Vs_Dell_Operation_Strategy</t>
+  </si>
+  <si>
+    <t>www.alexandermannsolutions.com/2014/10/global-sourcing-survey-results-2014/</t>
+  </si>
+  <si>
+    <t>www.allroadsleadtochina.com/tag/supplier-selection/</t>
+  </si>
+  <si>
+    <t>www.amazon.com/Offshore-Outsourcing-Work-Perspectives-Globalization/dp/0230521851</t>
+  </si>
+  <si>
+    <t>www.amazon.com/Spend-Analysis-Window-Strategic-Sourcing/dp/1932159932</t>
+  </si>
+  <si>
+    <t>www.americanbanker.com/</t>
+  </si>
+  <si>
+    <t>www.annualreport2013.philips.com/content/en/sustainability_statements/supplier_indicators.html</t>
+  </si>
+  <si>
+    <t>www.apple.com/apple-pay/</t>
+  </si>
+  <si>
+    <t>www.apple.com/appletv/whats-on/</t>
+  </si>
+  <si>
+    <t>www.apple.com/br/supplier-responsibility/pdf/Apple_Supplier_List_2014.pdf</t>
+  </si>
+  <si>
+    <t>www.apple.com/diversity/</t>
+  </si>
+  <si>
+    <t>www.apple.com/environment/our-progress/</t>
+  </si>
+  <si>
+    <t>www.apple.com/environment/reports/docs/Apple_Facilities_Report_2013.pdf</t>
+  </si>
+  <si>
+    <t>www.apple.com/environment/toxins/</t>
+  </si>
+  <si>
+    <t>www.apple.com/kr/supplier-responsibility/pdf/Apple_SR_2014_Progress_Report.pdf</t>
+  </si>
+  <si>
+    <t>www.apple.com/legal/internet-services/icloud/en/terms.html</t>
+  </si>
+  <si>
+    <t>www.apple.com/legal/privacy/en-us/</t>
+  </si>
+  <si>
+    <t>www.apple.com/legal/sla/</t>
+  </si>
+  <si>
+    <t>www.apple.com/pr/library/2013/07/23Apple-Reports-Third-Quarter-Results.html</t>
+  </si>
+  <si>
+    <t>www.apple.com/pr/library/2014/04/23Apple-Expands-Capital-Return-Program-to-Over-130-Billion.html</t>
+  </si>
+  <si>
+    <t>www.apple.com/procurement/</t>
+  </si>
+  <si>
+    <t>www.apple.com/supplier-responsibility/</t>
+  </si>
+  <si>
+    <t>www.apple.com/supplier-responsibility/empowering-workers/</t>
+  </si>
+  <si>
+    <t>www.apple.com/supplier-responsibility/environment/</t>
+  </si>
+  <si>
+    <t>www.apple.com/supplier-responsibility/our-suppliers/</t>
+  </si>
+  <si>
+    <t>www.apple.com/supplier-responsibility/pdf/Apple_Progress_Report_2015.pdf</t>
+  </si>
+  <si>
+    <t>www.apple.com/supplier-responsibility/pdf/Apple_SR_2013_Progress_Report.pdf</t>
+  </si>
+  <si>
+    <t>www.apple.com/supplier-responsibility/pdf/Apple_Supplier_Responsibility_Standards.pdf</t>
+  </si>
+  <si>
+    <t>www.apple.com/uk/supplier-responsibility/labor-and-human-rights/</t>
+  </si>
+  <si>
+    <t>www.applesearch.co.uk/erp-manager/</t>
+  </si>
+  <si>
+    <t>www.ariba.com/about/sap-ariba</t>
+  </si>
+  <si>
+    <t>www.asymco.com/2013/02/04/apples-calendar-fourth-quarter-2012-growth-scorecard/</t>
+  </si>
+  <si>
+    <t>www.autonews.com/article/20150310/OEM06/303109958/apple-ceo-sidesteps-shareholder-enthusiasm-for-a-tesla-deal</t>
+  </si>
+  <si>
+    <t>www.bbc.co.uk/news/business-30532463</t>
+  </si>
+  <si>
+    <t>www.bbc.com/capital/story/20140910-is-apple-on-the-path-to-me-too</t>
+  </si>
+  <si>
+    <t>www.bbc.com/news/business-30532463</t>
+  </si>
+  <si>
+    <t>www.bbc.com/news/technology-30548468</t>
+  </si>
+  <si>
+    <t>www.bgr.in/news/apple-supplier-pegatron-to-start-implementing-improvements-after-bbc-documentary-over-brutal-working-conditions/</t>
+  </si>
+  <si>
+    <t>www.bizjournals.com/phoenix/news/2014/12/15/we-recap-the-top-3-real-estate-stories-of-2014.html%3Fpage%3Dall</t>
+  </si>
+  <si>
+    <t>www.bizjournals.com/sanjose/news/2014/08/18/violations-found-at-apple-supplier-quantas.html</t>
+  </si>
+  <si>
+    <t>www.bloomberg.com/bw/articles/2013-03-28/how-samsung-became-the-worlds-no-dot-1-smartphone-maker</t>
+  </si>
+  <si>
+    <t>www.bloomberg.com/bw/articles/2014-06-04/chinas-xiaomi-the-worlds-fastest-growing-phone-maker</t>
+  </si>
+  <si>
+    <t>www.bloomberg.com/bw/articles/2014-06-05/conflict-free-minerals-intel-apple-and-hp-struggle-to-comply</t>
+  </si>
+  <si>
+    <t>www.bloomberg.com/bw/articles/2014-09-18/some-apple-suppliers-get-cut-off-must-scramble-for-new-business</t>
+  </si>
+  <si>
+    <t>www.bloomberg.com/bw/magazine/apples-supplychain-secret-hoard-lasers-11032011.html</t>
+  </si>
+  <si>
+    <t>www.bloomberg.com/news/2014-10-28/cumberland-s-kotok-raises-portfolio-stock-allocation-audio-.html</t>
+  </si>
+  <si>
+    <t>www.bloomberg.com/news/articles/2014-01-06/apple-facing-criticism-about-diversity-changes-bylaws</t>
+  </si>
+  <si>
+    <t>www.bloomberg.com/news/articles/2014-11-18/apple-sticking-with-arizona-plan-after-supplier-falters</t>
+  </si>
+  <si>
+    <t>www.bls.gov/ooh/a-z-index.htm</t>
+  </si>
+  <si>
+    <t>www.boundless.com/business/textbooks/boundless-business-textbook/economics-and-business-2/introduction-to-economic-systems-27/how-supply-and-demand-affect-businesses-151-7840/</t>
+  </si>
+  <si>
+    <t>www.brandchannel.com/home/post/2014/06/20/140620-Brand-News.aspx</t>
+  </si>
+  <si>
+    <t>www.breitbart.com/california/2014/12/20/apple-blamed-for-slave-labor-again/</t>
+  </si>
+  <si>
+    <t>www.businessinsider.com.au/apple-supplier-pegatron-responds-to-brutal-bbc-documentary-2014-12</t>
+  </si>
+  <si>
+    <t>www.capterra.com/contract-management-software/</t>
+  </si>
+  <si>
+    <t>www.ceres.org/roadmap-assessment/sector-analyses/technology-hardware</t>
+  </si>
+  <si>
+    <t>www.chinafile.com/multimedia/interactive/who-supplies-apple-its-not-just-china-interactive-map</t>
+  </si>
+  <si>
+    <t>www.cio.com/article/2378979/outsourcing/10-it-outsourcing-trends-to-watch-in-2014.html</t>
+  </si>
+  <si>
+    <t>www.cmu.edu/computing/repair/dsp/_files/sla_2015.pdf</t>
+  </si>
+  <si>
+    <t>www.cnbc.com/id/102098850</t>
+  </si>
+  <si>
+    <t>www.cnet.com/news/apple-chastised-for-unsafe-working-conditions-in-supplier-factory/</t>
+  </si>
+  <si>
+    <t>www.cnet.com/news/what-we-didnt-get-from-apples-march-9-event/</t>
+  </si>
+  <si>
+    <t>www.coffer.com/mac_find/</t>
+  </si>
+  <si>
+    <t>www.computerweekly.com/news/2240202685/Gartner-fires-warning-to-offshore-suppliers</t>
+  </si>
+  <si>
+    <t>www.computerworld.com/article/2487425/cybercrime-hacking/target-breach-happened-because-of-a-basic-network-segmentation-error.html</t>
+  </si>
+  <si>
+    <t>www.computerworld.com/article/2492883/enterprise-applications/sap-unveils-ariba-integration-plans.html</t>
+  </si>
+  <si>
+    <t>www.corporatecomplianceinsights.com/supply-chain-compliance-audit-the-apple-2011-supplier-responsibility-report/</t>
+  </si>
+  <si>
+    <t>www.dailymail.co.uk/sciencetech/article-2689162/The-great-iWatch-wait-Apples-smartwatch-delayed-come-unbreakable-sapphire-screen.html</t>
+  </si>
+  <si>
+    <t>www.devbistro.com/resumes/CC1739521685052%3Fkeywords%3DIT%2520Manager</t>
+  </si>
+  <si>
+    <t>www.dfwmsdc.com/</t>
+  </si>
+  <si>
+    <t>www.digitimes.com/news/a20150212PD218.html</t>
+  </si>
+  <si>
+    <t>www.digitimes.com/news/a20150310PD202.html</t>
+  </si>
+  <si>
+    <t>www.diversityinc.com/news/apples-plan-improve-diversity/</t>
+  </si>
+  <si>
+    <t>www.dividend.com/how-to-invest/who-owns-apple-inc-aapl/</t>
+  </si>
+  <si>
+    <t>www.dominiongaschoice.com/SelectaSupplier/SupplierComparisonChart.aspx</t>
+  </si>
+  <si>
+    <t>www.economist.com/news/special-report/21569575-companies-need-think-more-carefully-about-how-they-offshore-and-outsource-herd-instinct</t>
+  </si>
+  <si>
+    <t>www.ecsm.com.my/</t>
+  </si>
+  <si>
+    <t>www.engadget.com/2015/03/10/apple-diversity-efforts/</t>
+  </si>
+  <si>
+    <t>www.epa.gov/greenpower/awards/winners.htm</t>
+  </si>
+  <si>
+    <t>www.epeat.net/</t>
+  </si>
+  <si>
+    <t>www.epi.org/publication/apples-reporting-suppliers-labor-practices/</t>
+  </si>
+  <si>
+    <t>www.epi.org/publication/assessing-reforms-portrayed-apples-supplier/</t>
+  </si>
+  <si>
+    <t>www.erpsoftwareblog.com/2013/05/apple-and-microsoft-living-in-supply-chain-harmony/</t>
+  </si>
+  <si>
+    <t>www.esourcingforum.com/</t>
+  </si>
+  <si>
+    <t>www.ethicalconsumer.org/buyersguides/computing/laptopsandnetbooks.aspx</t>
+  </si>
+  <si>
+    <t>www.eurekalert.org/pub_releases/2014-12/asfh-mhm120814.php</t>
+  </si>
+  <si>
+    <t>www.eweek.com/</t>
+  </si>
+  <si>
+    <t>www.fairlabor.org/sites/default/files/documents/reports/august-2014-apple-quanta-executive-summary_0.pdf</t>
+  </si>
+  <si>
+    <t>www.fiercefinanceit.com/story/apple-pays-tokenization-has-parallel-significance-b2b-sap-says/2014-09-25</t>
+  </si>
+  <si>
+    <t>www.financialforce.com/</t>
+  </si>
+  <si>
+    <t>www.fool.com/investing/general/2014/06/01/3-tech-stocks-to-buy-ahead-of-apples-worldwide-dev.aspx</t>
+  </si>
+  <si>
+    <t>www.fool.com/investing/general/2014/09/07/3-apple-inc-suppliers-that-could-benefit-from-th-2.aspx</t>
+  </si>
+  <si>
+    <t>www.fool.com/investing/general/2014/09/10/why-diamond-offshore-drilling-inc-stock-has-crashe.aspx</t>
+  </si>
+  <si>
+    <t>www.fool.com/investing/general/2014/11/08/apple-incs-latest-supplier-negotiating-tactics-wit.aspx</t>
+  </si>
+  <si>
+    <t>www.fool.com/investing/general/2014/11/19/intel-corporation-scores-a-smartphone-win-with-lg.aspx</t>
+  </si>
+  <si>
+    <t>www.fool.com/investing/general/2015/03/09/1-potential-deal-that-highlights-the-dark-side-of.aspx</t>
+  </si>
+  <si>
+    <t>www.forbes.com/sites/amitchowdhry/2014/08/13/apple-ceo-tim-cook-is-not-satisfied-with-employee-diversity/</t>
+  </si>
+  <si>
+    <t>www.forbes.com/sites/chuckjones/2014/10/09/idc-has-apple-as-5th-largest-worldwide-pc-vendor/</t>
+  </si>
+  <si>
+    <t>www.forbes.com/sites/ciocentral/2012/02/09/the-end-of-erp/</t>
+  </si>
+  <si>
+    <t>www.forbes.com/sites/connieguglielmo/2013/12/12/apples-labor-practices-in-china-scrutinized-after-foxconn-pegatron-reviewed/</t>
+  </si>
+  <si>
+    <t>www.forbes.com/sites/greatspeculations/2014/08/19/why-apples-mac-product-segment-still-has-room-for-growth/</t>
+  </si>
+  <si>
+    <t>www.forbes.com/sites/lawtonursrey/2014/06/04/14-design-thinking-esque-tips-some-approaches-to-problem-solving-work-better-than-others/</t>
+  </si>
+  <si>
+    <t>www.forbes.com/sites/petercohan/2013/04/18/7-reasons-apple-is-more-doomed-than-you-think/</t>
+  </si>
+  <si>
+    <t>www.forbes.com/sites/ralphjennings/2015/01/28/lesson-learned-how-an-apple-contractor-went-bankrupt/</t>
+  </si>
+  <si>
+    <t>www.forbes.com/sites/timworstall/2013/03/11/is-apple-already-sourcing-processors-beyond-samsung/</t>
+  </si>
+  <si>
+    <t>www.fosspatents.com/2013/08/apple-isnt-winning-patent-spat-with.html</t>
+  </si>
+  <si>
+    <t>www.foxbusiness.com/</t>
+  </si>
+  <si>
+    <t>www.gartner.com/doc/2493115/gartner-supply-chain-top-</t>
+  </si>
+  <si>
+    <t>www.gartner.com/newsroom/id/2747417</t>
+  </si>
+  <si>
+    <t>www.gartner.com/technology/research/cool-vendors/</t>
+  </si>
+  <si>
+    <t>www.gartner.com/technology/supply-chain/top25.jsp</t>
+  </si>
+  <si>
+    <t>www.geekwire.com/2013/open-letter-jeff-bezos-contract-workers-amazoncom/</t>
+  </si>
+  <si>
+    <t>www.glassdoor.com/Interview/Apple-Interview-Questions-E1138.htm</t>
+  </si>
+  <si>
+    <t>www.glassdoor.com/Interview/Apple-Strategic-Sourcing-Manager-Interview-Questions-EI_IE1138.0,5_KO6,32.htm</t>
+  </si>
+  <si>
+    <t>www.glassdoor.com/Reviews/Apple-Reviews-E1138.htm</t>
+  </si>
+  <si>
+    <t>www.glassdoor.com/Reviews/Ariba-Reviews-E7917.htm</t>
+  </si>
+  <si>
+    <t>www.glassdoor.com/Salary/Apple-Strategic-Sourcing-Manager-Salaries-E1138_D_KO6,32.htm</t>
+  </si>
+  <si>
+    <t>www.greenpeace.org/international/en/campaigns/climate-change/cool-it/Campaign-analysis/Guide-to-Greener-Electronics/</t>
+  </si>
+  <si>
+    <t>www.gtnexus.com/resources/blog-posts/supply-chain-segmentation-emerging-markets/</t>
+  </si>
+  <si>
+    <t>www.huffingtonpost.com/tech/</t>
+  </si>
+  <si>
+    <t>www.ibm.com/press/us/en/pressrelease/45633.wss</t>
+  </si>
+  <si>
+    <t>www.ibtimes.com/apple-electric-car-rumors-german-giant-continental-extends-invitation-collaborate-1838980</t>
+  </si>
+  <si>
+    <t>www.idc.com/prodserv/smartphone-market-share.jsp</t>
+  </si>
+  <si>
+    <t>www.indeed.com/cmp/Apple/reviews</t>
+  </si>
+  <si>
+    <t>www.inertiaengineering.com/risks-of-using-offshore-contract-manufacturing/</t>
+  </si>
+  <si>
+    <t>www.infoworld.com/article/2612046/saas/microsoft-continues-cloud-erp-push-with-dynamics-nav-update.html</t>
+  </si>
+  <si>
+    <t>www.internetretailer.com/2013/09/17/will-apples-new-ios-7-wreak-havoc-mobile-apps</t>
+  </si>
+  <si>
+    <t>www.isac.org/isac-gift-assistance-programs/map/map-formula/2014-15-map-formula/</t>
+  </si>
+  <si>
+    <t>www.istockanalyst.com/finance/story/5075517/is-apple-aapl-over-dependent-on-offshore-suppliers</t>
+  </si>
+  <si>
+    <t>www.itproportal.com/2014/10/07/apples-sapphire-glass-supplier-gt-advanced-technologies-files-bankruptcy/</t>
+  </si>
+  <si>
+    <t>www.itunesfestival.com/</t>
+  </si>
+  <si>
+    <t>www.justice.gov/atr/cases/f309300/309330.pdf</t>
+  </si>
+  <si>
+    <t>www.library.illinois.edu/it/helpdesk/documents/computing-technology-allocation-program-outline.pdf</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/groups/iPad-Electronic-Medical-Records-EMR-2927837</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/aripartinen</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/avinaru</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/jenniferdshih</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/longenbaker</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/mitushiyadav</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/mmelton</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/ruthllanos</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/pub/anukul-sethi/1a/7a8/357</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/pub/lee-collins/0/b8/421</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/pub/paul-walsh/4/14a/972</t>
+  </si>
+  <si>
+    <t>www.macrumors.com/</t>
+  </si>
+  <si>
+    <t>www.macrumors.com/2012/09/26/apple-reportedly-sourcing-thinner-components-for-2013-macbook-air-and-macbook-pro/</t>
+  </si>
+  <si>
+    <t>www.macrumors.com/2013/01/07/apple-hiring-for-wireless-802-11ac-system-test-engineers/</t>
+  </si>
+  <si>
+    <t>www.macrumors.com/2014/03/24/google-apple-anti-poaching-agreements/</t>
+  </si>
+  <si>
+    <t>www.macrumors.com/2014/06/15/foxconn-sharp-orders-iphone-ipad-displays/</t>
+  </si>
+  <si>
+    <t>www.macrumors.com/2014/10/08/apple-fifth-largest-global-pc-vendor/</t>
+  </si>
+  <si>
+    <t>www.macrumors.com/2014/12/19/tim-cook-offended-by-bbc/</t>
+  </si>
+  <si>
+    <t>www.macrumors.com/roundup/apple-watch/</t>
+  </si>
+  <si>
+    <t>www.macworld.co.uk/feature/apple/apple-watch-iwatch-release-date-uk-price-specs-features-dimensions-details-3425479/</t>
+  </si>
+  <si>
+    <t>www.marketwatch.com/investing/stock/aapl/news</t>
+  </si>
+  <si>
+    <t>www.marketwatch.com/story/infonetics-global-optical-network-hardware-market-sees-diverse-results-by-vendor-and-region-in-2014-ciena-takes-2nd-2015-02-23-7173058</t>
+  </si>
+  <si>
+    <t>www.mckinsey.com/~/media/mckinsey/dotcom/client_service/Risk/Working%2520papers/57_Managing_supplier_risk_in_the_transportation_and_infrastructure_industry.ashx</t>
+  </si>
+  <si>
+    <t>www.mesaaz.gov/purchasing/</t>
+  </si>
+  <si>
+    <t>www.met.reading.ac.uk/it/internal/service_level.html</t>
+  </si>
+  <si>
+    <t>www.microsoft.com/investor/reports/ar14/index.html</t>
+  </si>
+  <si>
+    <t>www.modernhealthcare.com/article/20140722/NEWS/307229945/ibm-apple-partnership-could-have-big-health-it-impact</t>
+  </si>
+  <si>
+    <t>www.ncmahq.org/GCMS14Conference.cfm%3FItemNumber%3D19017</t>
+  </si>
+  <si>
+    <t>www.npd.com/wps/portal/npd/us/news/press-releases/the-npd-group-after10-years-apple-continues-music-download-dominance-in-the-u-s/</t>
+  </si>
+  <si>
+    <t>www.nytimes.com/2014/09/23/technology/apple-sells-10-million-new-iphones-in-first-weekend.html</t>
+  </si>
+  <si>
+    <t>www.nytimes.com/best-sellers-books/2014-09-21/combined-print-and-e-book-nonfiction/list.html</t>
+  </si>
+  <si>
+    <t>www.ogs.state.ny.us/purchase/snt/awardnotes/7535022314pm_Apple.pdf</t>
+  </si>
+  <si>
+    <t>www.ok.gov/dcs/solicit/app/contractSearch.php</t>
+  </si>
+  <si>
+    <t>www.ora.ca.gov/general.aspx%3Fid%3D2581</t>
+  </si>
+  <si>
+    <t>www.pac-online.com/ibm-and-apple-jazzy-mobile-frontend-design-heavy-erp-backends</t>
+  </si>
+  <si>
+    <t>www.popsci.com/article/science/core-truths-10-common-gmo-claims-debunked</t>
+  </si>
+  <si>
+    <t>www.pragmaticmarketing.com/resources/enabling-cross-functional-teams-a-leadership-role-for-product-managers</t>
+  </si>
+  <si>
+    <t>www.prnewswire.com/news-releases/apple-dominated-mobility-among-smbs-in-2014-samsung-made-slight-gains-300026786.html</t>
+  </si>
+  <si>
+    <t>www.protiviti.com/zh-CN/Documents/Insights/CN-en-POV-The-Reliable-Supplier-Quality-Control-A-Solid-Cornerstone-of-Effective-Procurement-Management.pdf</t>
+  </si>
+  <si>
+    <t>www.prweb.com/releases/2014/08/prweb12113520.htm</t>
+  </si>
+  <si>
+    <t>www.pymnts.com/news/2014/konica-minolta-choses-ariba-to-meet-cloud-solution-needs/</t>
+  </si>
+  <si>
+    <t>www.qvc.com/</t>
+  </si>
+  <si>
+    <t>www.rcrwireless.com/20141223/policy/fcc-2014-scorecard-2015-challenges-tag2</t>
+  </si>
+  <si>
+    <t>www.rechargenews.com/wind/1378246/IN-DEPTH-The-Envision-vision</t>
+  </si>
+  <si>
+    <t>www.retailtouchpoints.com/topics/inventory-merchandising-supply-chain/collaboration-becomes-key-to-success-for-retailers-and-suppliers</t>
+  </si>
+  <si>
+    <t>www.reuters.com/article/2014/04/09/us-samsung-elec-smartphones-analysis-idUSBREA3806J20140409</t>
+  </si>
+  <si>
+    <t>www.reuters.com/article/2014/08/22/us-apple-iphone-idUSKBN0GM0N620140822</t>
+  </si>
+  <si>
+    <t>www.reuters.com/article/2014/09/04/us-apple-china-labour-idUSKBN0GZ1NB20140904</t>
+  </si>
+  <si>
+    <t>www.reuters.com/article/2014/11/06/us-skyworks-solutns-results-idUSKBN0IQ2HT20141106</t>
+  </si>
+  <si>
+    <t>www.reuters.com/article/2014/12/14/autos-takata-suppliers-idUSKBN0JS0F820141214</t>
+  </si>
+  <si>
+    <t>www.reuters.com/article/2014/12/22/tigenixnv-brief-idUSFWN0U306P20141222</t>
+  </si>
+  <si>
+    <t>www.reuters.com/article/2015/03/09/us-apple-watch-cook-idUSKBN0M50WC20150309</t>
+  </si>
+  <si>
+    <t>www.righto.com/2012/10/a-dozen-usb-chargers-in-lab-apple-is.html</t>
+  </si>
+  <si>
+    <t>www.rma.usda.gov/aboutrma/fields/ca_rso/</t>
+  </si>
+  <si>
+    <t>www.rma.usda.gov/aboutrma/fields/nc_rso/</t>
+  </si>
+  <si>
+    <t>www.rma.usda.gov/aboutrma/fields/wa_rso/</t>
+  </si>
+  <si>
+    <t>www.sciencedaily.com/releases/2014/12/141208145606.htm</t>
+  </si>
+  <si>
+    <t>www.sciencedirect.com/science/article/pii/S015599821300032X</t>
+  </si>
+  <si>
+    <t>www.sciencedirect.com/science/article/pii/S2306774814000209</t>
+  </si>
+  <si>
+    <t>www.scpr.org/blogs/education/2014/08/22/17193/internal-emails-show-la-school-officials-started-i/</t>
+  </si>
+  <si>
+    <t>www.sdimedia.com/apple-approves-sdi-media-to-deliver-media-content-directly-to-itunes/</t>
+  </si>
+  <si>
+    <t>www.siliconvalley.com/workplace-diversity</t>
+  </si>
+  <si>
+    <t>www.simplyhired.com/job/apple-retail-merchandising-operations-manager-job/apple/epk2nbtkus</t>
+  </si>
+  <si>
+    <t>www.slashgear.com/ipad-pro-12-9-inch-display-tipped-for-early-2014-19305954/</t>
+  </si>
+  <si>
+    <t>www.slideshare.net/openerp4you/apmsapple-product-management-solution</t>
+  </si>
+  <si>
+    <t>www.slideshare.net/sweetNsourr/dissertation-25988438</t>
+  </si>
+  <si>
+    <t>www.sourceoneinc.com/strategic_sourcing_podcasts.html</t>
+  </si>
+  <si>
+    <t>www.staples.com/</t>
+  </si>
+  <si>
+    <t>www.statista.com/</t>
+  </si>
+  <si>
+    <t>www.statista.com/statistics/263355/global-mobile-device-sales-by-vendor-since-1st-quarter-2008/</t>
+  </si>
+  <si>
+    <t>www.stern.nyu.edu/~adamodar/</t>
+  </si>
+  <si>
+    <t>www.strategicsourceror.com/2013/08/how-apple-and-google-differ-in.html</t>
+  </si>
+  <si>
+    <t>www.strategicsourcing.ae/2013_01_01_archive.html</t>
+  </si>
+  <si>
+    <t>www.strategicsourcing.ae/2014/12/the-carrot-stick-part-1.html</t>
+  </si>
+  <si>
+    <t>www.supplychainopz.com/2013/01/is-apple-supply-chain-really-no-1-case.html</t>
+  </si>
+  <si>
+    <t>www.supplychainopz.com/2013/05/supply-chain-portofolio-matrix.html</t>
+  </si>
+  <si>
+    <t>www.supplymanagement.com/news/2015/apple-terminated-relationships-with-18-suppliers-due-to-sustainability-code-violations</t>
+  </si>
+  <si>
+    <t>www.technobuffalo.com/2014/10/06/apples-sapphire-supplier-files-for-bankruptcy/</t>
+  </si>
+  <si>
+    <t>www.techrepublic.com/article/diversity-stats-10-tech-companies-that-have-come-clean/</t>
+  </si>
+  <si>
+    <t>www.telegraph.co.uk/technology/apple/11033483/Apple-bans-two-dangerous-toxins-used-in-your-iPhone.html</t>
+  </si>
+  <si>
+    <t>www.telegraph.co.uk/technology/apple/11303052/Apple-working-conditions-Tim-Cook.html</t>
+  </si>
+  <si>
+    <t>www.thedrum.com/news/2013/01/10/rbs-and-natwest-launch-online-trading-tool-support-smes</t>
+  </si>
+  <si>
+    <t>www.theferrarigroup.com/supply-chain-matters/2013/05/30/business-media-confirms-apples-supply-chain-segmentation-and-risk-diversification-strategy/</t>
+  </si>
+  <si>
+    <t>www.theferrarigroup.com/supply-chain-matters/2014/11/20/added-visibility-to-the-challenges-of-an-apple-supplier-the-increased-importance-of-new-product-information-integration/</t>
+  </si>
+  <si>
+    <t>www.thegreensupplychain.com/NEWS/15-02-16-2.php</t>
+  </si>
+  <si>
+    <t>www.theguardian.com/sustainable-business/blog/compliance-collaboration-supply-chain-apple</t>
+  </si>
+  <si>
+    <t>www.theguardian.com/technology/2012/feb/13/apple-supplier-audit-foxconn</t>
+  </si>
+  <si>
+    <t>www.theguardian.com/technology/2013/nov/05/apple-creates-us-jobs-renewable-energy</t>
+  </si>
+  <si>
+    <t>www.theguardian.com/technology/2014/jul/10/samsung-supplier-allegedly-used-child-labour</t>
+  </si>
+  <si>
+    <t>www.theguardian.com/technology/2014/sep/07/apple-doesnt-need-charismatic-leader-tim-cook</t>
+  </si>
+  <si>
+    <t>www.theguardian.com/us/technology</t>
+  </si>
+  <si>
+    <t>www.thehindu.com/news/national/manmohan-singhs-statement-recorded-in-odisha-coal-block-allocation-case/article6805750.ece</t>
+  </si>
+  <si>
+    <t>www.theverge.com/2014/10/10/6960033/apples-sapphire-glass-supplier-bankruptcy-plant-shutdowns-layoffs</t>
+  </si>
+  <si>
+    <t>www.theverge.com/2014/5/6/5667618/supply-chained-apple-aluminum-and-sapphire</t>
+  </si>
+  <si>
+    <t>www.theverge.com/2014/8/15/6006451/new-audit-on-two-chinese-apple-suppliers-finds-labor-health-violations</t>
+  </si>
+  <si>
+    <t>www.twistimage.com/blog/archives/how-much-does-it-cost/</t>
+  </si>
+  <si>
+    <t>www.usatoday.com/story/tech/2014/07/14/apple-diversity-cook/12630571/</t>
+  </si>
+  <si>
+    <t>www.usatoday.com/story/tech/2014/08/12/apple-diversity-white-asian-male/13951329/</t>
+  </si>
+  <si>
+    <t>www.utexas.edu/its/sla/sla.php%3Fid%3D1106</t>
+  </si>
+  <si>
+    <t>www.valuewalk.com/2014/10/gt-advanced-technologies-inc-reveals-50m-penalty-apple/</t>
+  </si>
+  <si>
+    <t>www.vanityfair.com/news/business/2014/06/apple-samsung-smartphone-patent-war</t>
+  </si>
+  <si>
+    <t>www.winmagic.com/blog/</t>
+  </si>
+  <si>
+    <t>www.wired.com/2014/12/jesse-jackson-apple/</t>
+  </si>
+  <si>
+    <t>www.wm.edu/offices/it/services/computers/studentcomputers/agreementstudents/index.php</t>
+  </si>
+  <si>
+    <t>www.wolper.com/2015/01/2014-year-review/</t>
+  </si>
+  <si>
+    <t>www.wsj.com/articles/SB10001424127887324682204578513882349940500</t>
+  </si>
+  <si>
+    <t>www.wsj.com/articles/apple-plans-multiple-designs-for-smartwatch-1403245062</t>
+  </si>
+  <si>
+    <t>www.youtube.com/watch%3Fv%3DIrfGI-pi4U0</t>
+  </si>
+  <si>
+    <t>www.youtube.com/watch%3Fv%3Dazfus9V1Lao</t>
+  </si>
+  <si>
+    <t>www.zerohedge.com/news/2014-10-06/15-billion-market-cap-supplier-apple-sapphire-glass-just-filed-bankruptcy</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,14 +1506,1940 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
 </worksheet>
 </file>
